--- a/data/financial_statements/soci/KMI.xlsx
+++ b/data/financial_statements/soci/KMI.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -134,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -491,1532 +605,1565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>5054000000</v>
+        <v>4579000000</v>
       </c>
       <c r="C2">
-        <v>5423000000</v>
+        <v>5177000000</v>
       </c>
       <c r="D2">
-        <v>4933000000</v>
+        <v>5151000000</v>
       </c>
       <c r="E2">
-        <v>4478000000</v>
+        <v>4293000000</v>
       </c>
       <c r="F2">
-        <v>3958000000</v>
+        <v>4425000000</v>
       </c>
       <c r="G2">
+        <v>3824000000</v>
+      </c>
+      <c r="H2">
         <v>3150000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5211000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3115000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2919000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2560000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3106000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3352000000</v>
-      </c>
-      <c r="N2">
-        <v>3214000000</v>
       </c>
       <c r="O2">
         <v>3214000000</v>
       </c>
       <c r="P2">
+        <v>3214000000</v>
+      </c>
+      <c r="Q2">
         <v>3429000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3781000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3517000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>3428000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>3418000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>3632000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>3281000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>3368000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>3424000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>3389000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3330000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>3144000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>3195000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>3636000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>3707000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>3463000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>3597000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>3951000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>4291000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>3937000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>4047000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>3872000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>3756000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>3382000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>3060000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>0.2769</v>
+        <v>0.0348</v>
       </c>
       <c r="C3">
-        <v>0.7216</v>
+        <v>0.3538</v>
       </c>
       <c r="D3">
-        <v>-0.0533</v>
+        <v>0.6352</v>
       </c>
       <c r="E3">
-        <v>0.4376</v>
+        <v>-0.1762</v>
       </c>
       <c r="F3">
-        <v>0.3559</v>
+        <v>0.4205</v>
       </c>
       <c r="G3">
+        <v>0.31</v>
+      </c>
+      <c r="H3">
         <v>0.2305</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.6777</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.0707</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.09180000000000001</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.2035</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.09420000000000001</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-0.1135</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-0.0862</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-0.0624</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0032</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.041</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.07190000000000001</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.0178</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>-0.0018</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0717</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>-0.0147</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0712</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0717</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.0679</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>-0.1017</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.0921</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.1118</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.07969999999999999</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.1361</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.1204</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-0.1112</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0204</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.1424</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.1641</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.3225</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.2576</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.3087</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.5607</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.6478</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>3967000000</v>
+        <v>1961000000</v>
       </c>
       <c r="C4">
-        <v>3888000000</v>
+        <v>2717000000</v>
       </c>
       <c r="D4">
-        <v>2935000000</v>
+        <v>2683000000</v>
       </c>
       <c r="E4">
-        <v>3195000000</v>
+        <v>1894000000</v>
       </c>
       <c r="F4">
-        <v>2700000000</v>
+        <v>1989000000</v>
       </c>
       <c r="G4">
+        <v>1559000000</v>
+      </c>
+      <c r="H4">
         <v>936000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2009000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>786000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>655000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>441000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>663000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>776000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>762000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>777000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>948000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1199000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1135000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1068000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1019000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1207000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1007000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1070000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1061000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>975000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>971000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>752000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>731000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>778000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1106000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1085000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1090000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>1383000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1642000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1610000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>1643000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1486000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1543000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1254000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>970000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>1087000000</v>
+        <v>2618000000</v>
       </c>
       <c r="C5">
-        <v>1535000000</v>
+        <v>2460000000</v>
       </c>
       <c r="D5">
-        <v>1998000000</v>
+        <v>2468000000</v>
       </c>
       <c r="E5">
-        <v>1283000000</v>
+        <v>2399000000</v>
       </c>
       <c r="F5">
-        <v>1258000000</v>
+        <v>2436000000</v>
       </c>
       <c r="G5">
+        <v>2265000000</v>
+      </c>
+      <c r="H5">
         <v>2214000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3202000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2329000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2264000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2119000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2443000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2576000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2452000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>2437000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2481000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2582000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2382000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>2360000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>2399000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>2425000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>2274000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>2298000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>2363000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>2414000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>2359000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>2392000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>2464000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>2858000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>2601000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>2378000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>2507000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>2568000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>2649000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>2327000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>2404000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>2386000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>2213000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>2128000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>2090000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>963000000</v>
+      </c>
+      <c r="C6">
         <v>987000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>931000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>852000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>925000000</v>
       </c>
-      <c r="F6">
-        <v>174000000</v>
-      </c>
       <c r="G6">
+        <v>894000000</v>
+      </c>
+      <c r="H6">
         <v>850000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>780000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>876000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>896000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>864000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>865000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>915000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>925000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>897000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>870000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>836000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>886000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>866000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>880000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1054000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>879000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>804000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>821000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>878000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>853000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>902000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>863000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>936000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>880000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>870000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>836000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>818000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>797000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>805000000</v>
-      </c>
-      <c r="AJ6">
-        <v>765000000</v>
       </c>
       <c r="AK6">
         <v>765000000</v>
       </c>
       <c r="AL6">
+        <v>765000000</v>
+      </c>
+      <c r="AM6">
         <v>770000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>928000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>657000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>1104000000</v>
+      </c>
+      <c r="C7">
         <v>931000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1006000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1024000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>950000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>844000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-764000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1886000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>980000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>819000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-282000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>43000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1931000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>951000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>973000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1018000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1058000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1515000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>272000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>949000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>808000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>826000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>918000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>977000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>900000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>882000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>940000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>816000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-244000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>721000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>892000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1078000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>956000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>1332000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1013000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>1147000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>1160000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>1041000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>772000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1017000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>400000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>369000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>372000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>373000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>368000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>377000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>379000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>382000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>383000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>393000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>429000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>444000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>426000000</v>
+      </c>
+      <c r="C9">
         <v>399000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>355000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>333000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>370000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>368000000</v>
-      </c>
-      <c r="G9">
-        <v>377000000</v>
       </c>
       <c r="H9">
         <v>377000000</v>
       </c>
       <c r="I9">
+        <v>377000000</v>
+      </c>
+      <c r="J9">
         <v>381000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>383000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>395000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>436000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>442000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>447000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>452000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>460000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>461000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>473000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>516000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>467000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>445000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>459000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>463000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>465000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>422000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>472000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>471000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>441000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>527000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>540000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>472000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>512000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>478000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>432000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>440000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>448000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>428000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>418000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>427000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>402000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>-208000000</v>
+        <v>-213000000</v>
       </c>
       <c r="C10">
-        <v>5000000</v>
+        <v>-202000000</v>
       </c>
       <c r="D10">
-        <v>553000000</v>
+        <v>-169000000</v>
       </c>
       <c r="E10">
-        <v>-109000000</v>
+        <v>-146000000</v>
       </c>
       <c r="F10">
-        <v>9000000</v>
+        <v>-175000000</v>
       </c>
       <c r="G10">
+        <v>-199000000</v>
+      </c>
+      <c r="H10">
         <v>-213000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-110000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-180000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-207000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-238000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-274000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-849000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-283000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-297000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-279000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-283000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-314000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-448000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-243000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-484000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-279000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-319000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-286000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-512000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-688000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-352000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-348000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-449000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-430000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-361000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-435000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-366000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-307000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-338000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-346000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-387000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-319000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>234000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-80000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>891000000</v>
+      </c>
+      <c r="C11">
         <v>729000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>837000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>878000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>775000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>645000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-977000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1776000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>800000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>612000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-520000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-231000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1082000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>668000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>676000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>739000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>775000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1201000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-176000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>706000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>324000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>547000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>599000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>691000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>388000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>194000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>588000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>468000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-693000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>291000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>531000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>643000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>590000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>1025000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>675000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>801000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>773000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>722000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>1006000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>937000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>198000000</v>
+      </c>
+      <c r="C12">
         <v>134000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>184000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>194000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>121000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>134000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-237000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>351000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>177000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>140000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>104000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>60000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>455000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>151000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>148000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>172000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>273000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>196000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-46000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>164000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1316000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>160000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>216000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>246000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>173000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>377000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>213000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>154000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>43000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>108000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>189000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>224000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>24000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>246000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>178000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>200000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>67000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>171000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>225000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>279000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>693000000</v>
+      </c>
+      <c r="C13">
         <v>595000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>653000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>684000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>654000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>511000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-740000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1425000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>623000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>472000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-624000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-291000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>627000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>517000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>528000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>567000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>502000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1005000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-130000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>542000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-992000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>387000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>383000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>445000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>215000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-183000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>375000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>314000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-736000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>183000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>342000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>419000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>566000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>779000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>497000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>601000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>706000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>551000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>781000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>658000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14">
         <v>4000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>7000000</v>
-      </c>
-      <c r="J14">
-        <v>3000000</v>
       </c>
       <c r="K14">
         <v>3000000</v>
@@ -2024,17 +2171,17 @@
       <c r="L14">
         <v>3000000</v>
       </c>
-      <c r="O14">
+      <c r="M14">
         <v>3000000</v>
       </c>
       <c r="P14">
         <v>3000000</v>
       </c>
       <c r="Q14">
+        <v>3000000</v>
+      </c>
+      <c r="R14">
         <v>11000000</v>
-      </c>
-      <c r="R14">
-        <v>39000000</v>
       </c>
       <c r="S14">
         <v>39000000</v>
@@ -2066,534 +2213,543 @@
       <c r="AB14">
         <v>39000000</v>
       </c>
-      <c r="AD14">
+      <c r="AC14">
+        <v>39000000</v>
+      </c>
+      <c r="AE14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>23000000</v>
+      </c>
+      <c r="C15">
         <v>19000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>18000000</v>
-      </c>
-      <c r="D15">
-        <v>17000000</v>
       </c>
       <c r="E15">
         <v>17000000</v>
       </c>
       <c r="F15">
+        <v>17000000</v>
+      </c>
+      <c r="G15">
         <v>16000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>17000000</v>
-      </c>
-      <c r="H15">
-        <v>16000000</v>
       </c>
       <c r="I15">
         <v>16000000</v>
       </c>
       <c r="J15">
+        <v>16000000</v>
+      </c>
+      <c r="K15">
         <v>17000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>13000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>15000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>17000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>11000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>10000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>11000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>8000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>273000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>11000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>18000000</v>
-      </c>
-      <c r="U15">
-        <v>14000000</v>
       </c>
       <c r="V15">
         <v>14000000</v>
       </c>
       <c r="W15">
+        <v>14000000</v>
+      </c>
+      <c r="X15">
         <v>7000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>5000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>6000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>5000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>3000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-1000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-41000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-3000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>9000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-10000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>440000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>450000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>213000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>314000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>366000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>265000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>504000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>364000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>572000000</v>
+        <v>670000000</v>
       </c>
       <c r="C16">
-        <v>633000000</v>
+        <v>576000000</v>
       </c>
       <c r="D16">
-        <v>663000000</v>
+        <v>635000000</v>
       </c>
       <c r="E16">
-        <v>633000000</v>
+        <v>667000000</v>
       </c>
       <c r="F16">
-        <v>491000000</v>
+        <v>637000000</v>
       </c>
       <c r="G16">
+        <v>495000000</v>
+      </c>
+      <c r="H16">
         <v>-757000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1409000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>616000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>452000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-640000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-309000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>616000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>506000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>515000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>553000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>483000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>693000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-180000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>485000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-1045000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>334000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>337000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>401000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>170000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-227000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>333000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>276000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-721000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>186000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>333000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>429000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>126000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>329000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>284000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>287000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>338000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>286000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>277000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>292000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>0.25</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.28</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.29</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.28</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.22</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-0.34</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.62</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.27</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.2</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-0.28</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-0.14</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.27</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.22</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.23</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.24</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.21</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.31</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-0.08</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>0.22</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-0.47</v>
-      </c>
-      <c r="V17">
-        <v>0.15</v>
       </c>
       <c r="W17">
         <v>0.15</v>
       </c>
       <c r="X17">
+        <v>0.15</v>
+      </c>
+      <c r="Y17">
         <v>0.18</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>0.08</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-0.1</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>0.15</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>0.12</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-0.29</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.08</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>0.15</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>0.22</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>0.08</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>0.32</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0.27</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.28</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>0.33</v>
-      </c>
-      <c r="AL17">
-        <v>0.27</v>
       </c>
       <c r="AM17">
         <v>0.27</v>
       </c>
       <c r="AN17">
+        <v>0.27</v>
+      </c>
+      <c r="AO17">
         <v>0.28</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>0.25</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.28</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.29</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.28</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.22</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.34</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.62</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.27</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.2</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-0.28</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-0.14</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.27</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.22</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.23</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.24</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.21</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.31</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-0.08</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.22</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-0.47</v>
-      </c>
-      <c r="V18">
-        <v>0.15</v>
       </c>
       <c r="W18">
         <v>0.15</v>
       </c>
       <c r="X18">
+        <v>0.15</v>
+      </c>
+      <c r="Y18">
         <v>0.18</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>0.08</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-0.1</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>0.15</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.12</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-0.29</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.08</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>0.15</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>0.22</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.08</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>0.32</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0.27</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.28</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>0.33</v>
-      </c>
-      <c r="AL18">
-        <v>0.27</v>
       </c>
       <c r="AM18">
         <v>0.27</v>
       </c>
       <c r="AN18">
+        <v>0.27</v>
+      </c>
+      <c r="AO18">
         <v>0.28</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>2248000000</v>
+      </c>
+      <c r="C19">
         <v>2253000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2265000000</v>
-      </c>
-      <c r="D19">
-        <v>2267000000</v>
       </c>
       <c r="E19">
         <v>2267000000</v>
       </c>
       <c r="F19">
+        <v>2266000000</v>
+      </c>
+      <c r="G19">
         <v>2267000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2265000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2264000000</v>
-      </c>
-      <c r="I19">
-        <v>2263000000</v>
       </c>
       <c r="J19">
         <v>2263000000</v>
       </c>
       <c r="K19">
+        <v>2263000000</v>
+      </c>
+      <c r="L19">
         <v>2261000000</v>
-      </c>
-      <c r="L19">
-        <v>2264000000</v>
       </c>
       <c r="M19">
         <v>2264000000</v>
@@ -2602,31 +2758,31 @@
         <v>2264000000</v>
       </c>
       <c r="O19">
-        <v>2262000000</v>
+        <v>2264000000</v>
       </c>
       <c r="P19">
         <v>2262000000</v>
       </c>
       <c r="Q19">
+        <v>2262000000</v>
+      </c>
+      <c r="R19">
         <v>2216000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>2205000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2204000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>2207000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>2230000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>2231000000</v>
-      </c>
-      <c r="W19">
-        <v>2230000000</v>
       </c>
       <c r="X19">
         <v>2230000000</v>
@@ -2638,37 +2794,37 @@
         <v>2230000000</v>
       </c>
       <c r="AA19">
-        <v>2229000000</v>
+        <v>2230000000</v>
       </c>
       <c r="AB19">
         <v>2229000000</v>
       </c>
       <c r="AC19">
+        <v>2229000000</v>
+      </c>
+      <c r="AD19">
         <v>2187000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>2203000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>2175000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>2141000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>1137000000</v>
-      </c>
-      <c r="AH19">
-        <v>1028000000</v>
       </c>
       <c r="AI19">
         <v>1028000000</v>
       </c>
       <c r="AJ19">
+        <v>1028000000</v>
+      </c>
+      <c r="AK19">
         <v>1029000000</v>
-      </c>
-      <c r="AK19">
-        <v>1036000000</v>
       </c>
       <c r="AL19">
         <v>1036000000</v>
@@ -2679,43 +2835,46 @@
       <c r="AN19">
         <v>1036000000</v>
       </c>
+      <c r="AO19">
+        <v>1036000000</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>2248000000</v>
+      </c>
+      <c r="C20">
         <v>2253000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>2265000000</v>
-      </c>
-      <c r="D20">
-        <v>2267000000</v>
       </c>
       <c r="E20">
         <v>2267000000</v>
       </c>
       <c r="F20">
+        <v>2266000000</v>
+      </c>
+      <c r="G20">
         <v>2267000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2265000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2264000000</v>
-      </c>
-      <c r="I20">
-        <v>2263000000</v>
       </c>
       <c r="J20">
         <v>2263000000</v>
       </c>
       <c r="K20">
+        <v>2263000000</v>
+      </c>
+      <c r="L20">
         <v>2261000000</v>
-      </c>
-      <c r="L20">
-        <v>2264000000</v>
       </c>
       <c r="M20">
         <v>2264000000</v>
@@ -2724,31 +2883,31 @@
         <v>2264000000</v>
       </c>
       <c r="O20">
-        <v>2262000000</v>
+        <v>2264000000</v>
       </c>
       <c r="P20">
         <v>2262000000</v>
       </c>
       <c r="Q20">
+        <v>2262000000</v>
+      </c>
+      <c r="R20">
         <v>2216000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>2205000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>2204000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>2207000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>2230000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>2231000000</v>
-      </c>
-      <c r="W20">
-        <v>2230000000</v>
       </c>
       <c r="X20">
         <v>2230000000</v>
@@ -2760,37 +2919,37 @@
         <v>2230000000</v>
       </c>
       <c r="AA20">
-        <v>2229000000</v>
+        <v>2230000000</v>
       </c>
       <c r="AB20">
         <v>2229000000</v>
       </c>
       <c r="AC20">
+        <v>2229000000</v>
+      </c>
+      <c r="AD20">
         <v>2193000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>2203000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>2187000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>2151000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>1137000000</v>
-      </c>
-      <c r="AH20">
-        <v>1028000000</v>
       </c>
       <c r="AI20">
         <v>1028000000</v>
       </c>
       <c r="AJ20">
+        <v>1028000000</v>
+      </c>
+      <c r="AK20">
         <v>1029000000</v>
-      </c>
-      <c r="AK20">
-        <v>1036000000</v>
       </c>
       <c r="AL20">
         <v>1036000000</v>
@@ -2801,1516 +2960,1549 @@
       <c r="AN20">
         <v>1036000000</v>
       </c>
+      <c r="AO20">
+        <v>1036000000</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>0.2151</v>
+        <v>0.5717</v>
       </c>
       <c r="C21">
-        <v>0.2831</v>
+        <v>0.4752</v>
       </c>
       <c r="D21">
-        <v>0.405</v>
+        <v>0.4791</v>
       </c>
       <c r="E21">
-        <v>0.2865</v>
+        <v>0.5588</v>
       </c>
       <c r="F21">
-        <v>0.3178</v>
+        <v>0.5505</v>
       </c>
       <c r="G21">
+        <v>0.5923</v>
+      </c>
+      <c r="H21">
         <v>0.7029</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.6145</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.7477</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.7756</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.8277</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.7865</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.7685</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.7629</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.7582</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.7235</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.6829</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.6773</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.6884</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.7019</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.6677</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.6931</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.6823</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.6901</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.7123</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.7084</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.7608</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.7712</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.786</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.7016</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.6867</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.697</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.65</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.6173</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.5911</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.594</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.6162</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.5891999999999999</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.6292</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.6830000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>0.1842</v>
+        <v>0.2411</v>
       </c>
       <c r="C22">
-        <v>0.1855</v>
+        <v>0.1798</v>
       </c>
       <c r="D22">
-        <v>0.2076</v>
+        <v>0.1953</v>
       </c>
       <c r="E22">
-        <v>0.2121</v>
+        <v>0.2385</v>
       </c>
       <c r="F22">
-        <v>0.2132</v>
+        <v>0.2147</v>
       </c>
       <c r="G22">
+        <v>0.2207</v>
+      </c>
+      <c r="H22">
         <v>-0.2425</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.3619</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.3146</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.2806</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>-0.1102</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.0138</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.5760999999999999</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.2959</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.3027</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.2969</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.2798</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.4308</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.0793</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.2776</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.2225</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.2518</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.2726</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.2853</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.2656</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.2649</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.299</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.2554</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-0.06710000000000001</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.1945</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.2576</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.2997</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.242</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.3104</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.2573</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.2834</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.2996</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.2772</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.2283</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.3324</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>0.1442</v>
+        <v>0.1946</v>
       </c>
       <c r="C23">
-        <v>0.1543</v>
+        <v>0.1408</v>
       </c>
       <c r="D23">
-        <v>0.178</v>
+        <v>0.1625</v>
       </c>
       <c r="E23">
-        <v>0.1731</v>
+        <v>0.2045</v>
       </c>
       <c r="F23">
-        <v>0.163</v>
+        <v>0.1751</v>
       </c>
       <c r="G23">
+        <v>0.1687</v>
+      </c>
+      <c r="H23">
         <v>-0.3102</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.3408</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.2568</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.2097</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-0.2031</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-0.07439999999999999</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.3228</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.2078</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.2103</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.2155</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.205</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.3415</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>-0.0513</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.2066</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.0892</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.1667</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.1779</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.2018</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.1145</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.0583</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.187</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.1465</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>-0.1906</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.0785</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.1533</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.1788</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.1493</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.2389</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.1715</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.1979</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.1996</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.1922</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.2975</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.3062</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>0.1132</v>
+        <v>0.1463</v>
       </c>
       <c r="C24">
-        <v>0.1167</v>
+        <v>0.1113</v>
       </c>
       <c r="D24">
-        <v>0.1344</v>
+        <v>0.1233</v>
       </c>
       <c r="E24">
-        <v>0.1414</v>
+        <v>0.1554</v>
       </c>
       <c r="F24">
-        <v>0.1241</v>
+        <v>0.144</v>
       </c>
       <c r="G24">
+        <v>0.1294</v>
+      </c>
+      <c r="H24">
         <v>-0.2403</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.2704</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.1978</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.1548</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-0.25</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-0.09950000000000001</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.1838</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.1574</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.1602</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.1613</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.1277</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.197</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>-0.0525</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.1419</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-0.2877</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.1018</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.1001</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>0.1171</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.0502</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>-0.0682</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.1059</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.0864</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-0.1983</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.0502</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.09619999999999999</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.1193</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.0319</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.0767</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.0721</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.0709</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.0873</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.0761</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.0819</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.0954</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1363000000</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C25">
-        <v>1810000000</v>
+        <v>1501000000</v>
       </c>
       <c r="D25">
-        <v>2269000000</v>
+        <v>1568000000</v>
       </c>
       <c r="E25">
-        <v>1556000000</v>
+        <v>1581000000</v>
       </c>
       <c r="F25">
-        <v>1504000000</v>
+        <v>1512000000</v>
       </c>
       <c r="G25">
+        <v>1391000000</v>
+      </c>
+      <c r="H25">
         <v>-223000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2449000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1549000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1390000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>285000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>640000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>2614000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1550000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1571000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1632000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1663000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2105000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>867000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1551000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1388000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>1403000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>1510000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>1550000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1471000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>1446000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1508000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>1381000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1502000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>1351000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1476000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>1628000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>1490000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>1864000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>1526000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>1653000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>1649000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>1519000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>1226000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>1441000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>1104000000</v>
+      </c>
+      <c r="C26">
         <v>931000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1006000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1024000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>950000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>844000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-764000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1886000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>980000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>819000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-282000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>43000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1931000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>951000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>973000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1018000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1058000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1515000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>272000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>949000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>808000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>826000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>918000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>977000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>900000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>882000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>940000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>816000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>-244000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>721000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>892000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>1078000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>956000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>1332000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>1013000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>1147000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>1160000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>1041000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>772000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>1017000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>693000000</v>
+      </c>
+      <c r="C27">
         <v>595000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>653000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>684000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>654000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>511000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-740000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1425000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>623000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>472000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-624000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-291000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>627000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>517000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>528000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>567000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>502000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1005000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-130000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>542000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-992000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>387000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>383000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>445000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>215000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>-183000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>375000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>314000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>-736000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>183000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>342000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>419000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>566000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>779000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>497000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>601000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>706000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>551000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>781000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>658000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL28">
         <v>-2000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-2000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
-        <v>591000000</v>
+        <v>693000000</v>
       </c>
       <c r="C29">
-        <v>651000000</v>
+        <v>595000000</v>
       </c>
       <c r="D29">
-        <v>680000000</v>
+        <v>653000000</v>
       </c>
       <c r="E29">
-        <v>650000000</v>
+        <v>684000000</v>
       </c>
       <c r="F29">
-        <v>507000000</v>
+        <v>654000000</v>
       </c>
       <c r="G29">
+        <v>511000000</v>
+      </c>
+      <c r="H29">
         <v>-740000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1425000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>623000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>472000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-624000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-291000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>627000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>517000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>528000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>567000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>502000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1005000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-130000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>542000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-992000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>387000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>383000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>445000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>215000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-183000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>375000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>314000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-736000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>183000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>342000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>419000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>566000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>779000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>497000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>601000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>704000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>551000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>781000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>656000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>0.3083</v>
+      </c>
+      <c r="C30">
         <v>0.2641</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.2883</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.3017</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.2883</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.2254</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-0.3267</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.6294</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.2755</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.2086</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-0.276</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-0.1285</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.2765</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.2284</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.2334</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.2507</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.2236</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.4558</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-0.059</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.2456</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-0.4448</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.1735</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.1717</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.1996</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.0963</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-0.08210000000000001</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.1682</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.1409</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-0.3409</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.08309999999999999</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.1572</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.1957</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.3233</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.7578</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.4835</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.5841</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>1.7823</v>
-      </c>
-      <c r="AL30">
-        <v>0.27</v>
       </c>
       <c r="AM30">
         <v>0.27</v>
       </c>
       <c r="AN30">
+        <v>0.27</v>
+      </c>
+      <c r="AO30">
         <v>0.28</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>0.3083</v>
+      </c>
+      <c r="C31">
         <v>0.2641</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.2883</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.3017</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.2883</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.2254</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-0.3267</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.6294</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.2755</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.2086</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-0.276</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-0.1285</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.2765</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>0.2284</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.2334</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>0.2507</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.2236</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>0.4558</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-0.059</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>0.2456</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-0.4448</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.1735</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.1717</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.1996</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>0.0963</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>-0.08210000000000001</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>0.1682</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.1409</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-0.3394</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.08309999999999999</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>0.1564</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>0.1948</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.3233</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.7578</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.4835</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.5841</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>1.7823</v>
-      </c>
-      <c r="AL31">
-        <v>0.27</v>
       </c>
       <c r="AM31">
         <v>0.27</v>
       </c>
       <c r="AN31">
+        <v>0.27</v>
+      </c>
+      <c r="AO31">
         <v>0.28</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL32">
         <v>-0.0019</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>-0.0019</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL33">
         <v>-0.0019</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>-0.0019</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>0.3083</v>
+      </c>
+      <c r="C34">
         <v>0.2641</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.2883</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.3017</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.2883</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.2254</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-0.3267</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.6294</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.2755</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.2086</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>-0.276</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-0.1285</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.2765</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.2284</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.2334</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.2507</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.2236</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.4558</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>-0.059</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.2456</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-0.4448</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.1735</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.1717</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.1996</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.0963</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>-0.08210000000000001</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.1682</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.1409</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>-0.3409</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.08309999999999999</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.1572</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.1957</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.3233</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.7578</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.4835</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.5841</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.6795</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.5319</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.7539</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.6332</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>0.3083</v>
+      </c>
+      <c r="C35">
         <v>0.2641</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.2883</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.3017</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.2883</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.2254</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-0.3267</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.6294</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.2755</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.2086</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>-0.276</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>-0.1285</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.2765</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>0.2284</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>0.2334</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>0.2507</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0.2236</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>0.4558</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>-0.059</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>0.2456</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-0.4448</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.1735</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0.1717</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>0.1996</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>0.0963</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>-0.08210000000000001</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>0.1682</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>0.1409</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>-0.3394</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>0.08309999999999999</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>0.1564</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>0.1948</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>0.3233</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>0.7578</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>0.4835</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>0.5841</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>0.6795</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>0.5319</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>0.7539</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>0.6332</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
         <v>2253000000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>2265000000</v>
-      </c>
-      <c r="D36">
-        <v>2267000000</v>
       </c>
       <c r="E36">
         <v>2267000000</v>
@@ -4319,55 +4511,55 @@
         <v>2267000000</v>
       </c>
       <c r="G36">
+        <v>2267000000</v>
+      </c>
+      <c r="H36">
         <v>2265000000</v>
-      </c>
-      <c r="H36">
-        <v>2264000000</v>
       </c>
       <c r="I36">
         <v>2264000000</v>
       </c>
       <c r="J36">
+        <v>2264000000</v>
+      </c>
+      <c r="K36">
         <v>2263000000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>2261000000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>2264000000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>2265000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>2264000000</v>
-      </c>
-      <c r="O36">
-        <v>2262000000</v>
       </c>
       <c r="P36">
         <v>2262000000</v>
       </c>
       <c r="Q36">
+        <v>2262000000</v>
+      </c>
+      <c r="R36">
         <v>2248000000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>2205000000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>2204000000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>2207000000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>2229000000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>2231000000</v>
-      </c>
-      <c r="W36">
-        <v>2230000000</v>
       </c>
       <c r="X36">
         <v>2230000000</v>
@@ -4379,7 +4571,7 @@
         <v>2230000000</v>
       </c>
       <c r="AA36">
-        <v>2229000000</v>
+        <v>2230000000</v>
       </c>
       <c r="AB36">
         <v>2229000000</v>
@@ -4388,280 +4580,289 @@
         <v>2229000000</v>
       </c>
       <c r="AD36">
+        <v>2229000000</v>
+      </c>
+      <c r="AE36">
         <v>2203000000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>2187000000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>2151000000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>1457000000</v>
-      </c>
-      <c r="AH36">
-        <v>1028000000</v>
       </c>
       <c r="AI36">
         <v>1028000000</v>
       </c>
       <c r="AJ36">
+        <v>1028000000</v>
+      </c>
+      <c r="AK36">
         <v>1029000000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>1035000000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>1036000000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>1038000000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>1036000000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
-        <v>0.2697</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.3338</v>
+        <v>0.2899</v>
       </c>
       <c r="D37">
-        <v>0.46</v>
+        <v>0.3044</v>
       </c>
       <c r="E37">
-        <v>0.3475</v>
+        <v>0.3683</v>
       </c>
       <c r="F37">
+        <v>0.3417</v>
+      </c>
+      <c r="G37">
+        <v>0.3638</v>
+      </c>
+      <c r="H37">
+        <v>-0.0708</v>
+      </c>
+      <c r="I37">
+        <v>0.47</v>
+      </c>
+      <c r="J37">
+        <v>0.4973</v>
+      </c>
+      <c r="K37">
+        <v>0.4762</v>
+      </c>
+      <c r="L37">
+        <v>0.1113</v>
+      </c>
+      <c r="M37">
+        <v>0.2061</v>
+      </c>
+      <c r="N37">
+        <v>0.7798</v>
+      </c>
+      <c r="O37">
+        <v>0.4823</v>
+      </c>
+      <c r="P37">
+        <v>0.4888</v>
+      </c>
+      <c r="Q37">
+        <v>0.4759</v>
+      </c>
+      <c r="R37">
+        <v>0.4398</v>
+      </c>
+      <c r="S37">
+        <v>0.5985</v>
+      </c>
+      <c r="T37">
+        <v>0.2529</v>
+      </c>
+      <c r="U37">
+        <v>0.4538</v>
+      </c>
+      <c r="V37">
+        <v>0.3822</v>
+      </c>
+      <c r="W37">
+        <v>0.4276</v>
+      </c>
+      <c r="X37">
+        <v>0.4483</v>
+      </c>
+      <c r="Y37">
+        <v>0.4527</v>
+      </c>
+      <c r="Z37">
+        <v>0.4341</v>
+      </c>
+      <c r="AA37">
+        <v>0.4342</v>
+      </c>
+      <c r="AB37">
+        <v>0.4796</v>
+      </c>
+      <c r="AC37">
+        <v>0.4322</v>
+      </c>
+      <c r="AD37">
+        <v>0.4131</v>
+      </c>
+      <c r="AE37">
+        <v>0.3644</v>
+      </c>
+      <c r="AF37">
+        <v>0.4262</v>
+      </c>
+      <c r="AG37">
+        <v>0.4526</v>
+      </c>
+      <c r="AH37">
+        <v>0.3771</v>
+      </c>
+      <c r="AI37">
+        <v>0.4344</v>
+      </c>
+      <c r="AJ37">
+        <v>0.3876</v>
+      </c>
+      <c r="AK37">
+        <v>0.4085</v>
+      </c>
+      <c r="AL37">
+        <v>0.4259</v>
+      </c>
+      <c r="AM37">
+        <v>0.4044</v>
+      </c>
+      <c r="AN37">
+        <v>0.3625</v>
+      </c>
+      <c r="AO37">
+        <v>0.4709</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0.1767</v>
+      </c>
+      <c r="D38">
+        <v>0.3036</v>
+      </c>
+      <c r="E38">
+        <v>0.2525</v>
+      </c>
+      <c r="F38">
+        <v>0.2866</v>
+      </c>
+      <c r="G38">
+        <v>0.2952</v>
+      </c>
+      <c r="H38">
+        <v>0.4565</v>
+      </c>
+      <c r="I38">
+        <v>0.3594</v>
+      </c>
+      <c r="J38">
+        <v>0.4071</v>
+      </c>
+      <c r="K38">
+        <v>0.3597</v>
+      </c>
+      <c r="L38">
+        <v>0.523</v>
+      </c>
+      <c r="M38">
+        <v>0.2875</v>
+      </c>
+      <c r="N38">
+        <v>0.4854</v>
+      </c>
+      <c r="O38">
+        <v>0.3183</v>
+      </c>
+      <c r="P38">
+        <v>0.4552</v>
+      </c>
+      <c r="Q38">
+        <v>0.1852</v>
+      </c>
+      <c r="R38">
+        <v>0.4412</v>
+      </c>
+      <c r="S38">
+        <v>0.2579</v>
+      </c>
+      <c r="T38">
+        <v>0.4358</v>
+      </c>
+      <c r="U38">
+        <v>0.285</v>
+      </c>
+      <c r="V38">
+        <v>0.3563</v>
+      </c>
+      <c r="W38">
+        <v>0.3478</v>
+      </c>
+      <c r="X38">
         <v>0.38</v>
       </c>
-      <c r="G37">
-        <v>-0.0708</v>
-      </c>
-      <c r="H37">
-        <v>0.47</v>
-      </c>
-      <c r="I37">
-        <v>0.4973</v>
-      </c>
-      <c r="J37">
-        <v>0.4762</v>
-      </c>
-      <c r="K37">
-        <v>0.1113</v>
-      </c>
-      <c r="L37">
-        <v>0.2061</v>
-      </c>
-      <c r="M37">
-        <v>0.7798</v>
-      </c>
-      <c r="N37">
-        <v>0.4823</v>
-      </c>
-      <c r="O37">
-        <v>0.4888</v>
-      </c>
-      <c r="P37">
-        <v>0.4759</v>
-      </c>
-      <c r="Q37">
-        <v>0.4398</v>
-      </c>
-      <c r="R37">
-        <v>0.5985</v>
-      </c>
-      <c r="S37">
-        <v>0.2529</v>
-      </c>
-      <c r="T37">
-        <v>0.4538</v>
-      </c>
-      <c r="U37">
-        <v>0.3822</v>
-      </c>
-      <c r="V37">
-        <v>0.4276</v>
-      </c>
-      <c r="W37">
-        <v>0.4483</v>
-      </c>
-      <c r="X37">
-        <v>0.4527</v>
-      </c>
-      <c r="Y37">
-        <v>0.4341</v>
-      </c>
-      <c r="Z37">
-        <v>0.4342</v>
-      </c>
-      <c r="AA37">
-        <v>0.4796</v>
-      </c>
-      <c r="AB37">
-        <v>0.4322</v>
-      </c>
-      <c r="AC37">
-        <v>0.4131</v>
-      </c>
-      <c r="AD37">
-        <v>0.3644</v>
-      </c>
-      <c r="AE37">
-        <v>0.4262</v>
-      </c>
-      <c r="AF37">
-        <v>0.4526</v>
-      </c>
-      <c r="AG37">
-        <v>0.3771</v>
-      </c>
-      <c r="AH37">
-        <v>0.4344</v>
-      </c>
-      <c r="AI37">
-        <v>0.3876</v>
-      </c>
-      <c r="AJ37">
-        <v>0.4085</v>
-      </c>
-      <c r="AK37">
-        <v>0.4259</v>
-      </c>
-      <c r="AL37">
-        <v>0.4044</v>
-      </c>
-      <c r="AM37">
-        <v>0.3625</v>
-      </c>
-      <c r="AN37">
-        <v>0.4709</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>0.181</v>
-      </c>
-      <c r="C38">
-        <v>0.2884</v>
-      </c>
-      <c r="D38">
-        <v>0.2197</v>
-      </c>
-      <c r="E38">
-        <v>0.2832</v>
-      </c>
-      <c r="F38">
-        <v>0.2852</v>
-      </c>
-      <c r="G38">
-        <v>0.4565</v>
-      </c>
-      <c r="H38">
-        <v>0.3594</v>
-      </c>
-      <c r="I38">
-        <v>0.4071</v>
-      </c>
-      <c r="J38">
-        <v>0.3597</v>
-      </c>
-      <c r="K38">
-        <v>0.523</v>
-      </c>
-      <c r="L38">
-        <v>0.2875</v>
-      </c>
-      <c r="M38">
-        <v>0.4854</v>
-      </c>
-      <c r="N38">
-        <v>0.3183</v>
-      </c>
-      <c r="O38">
-        <v>0.4552</v>
-      </c>
-      <c r="P38">
-        <v>0.1852</v>
-      </c>
-      <c r="Q38">
-        <v>0.4412</v>
-      </c>
-      <c r="R38">
-        <v>0.2579</v>
-      </c>
-      <c r="S38">
-        <v>0.4358</v>
-      </c>
-      <c r="T38">
-        <v>0.285</v>
-      </c>
-      <c r="U38">
-        <v>0.3563</v>
-      </c>
-      <c r="V38">
-        <v>0.3478</v>
-      </c>
-      <c r="W38">
-        <v>0.38</v>
-      </c>
-      <c r="X38">
+      <c r="Y38">
         <v>0.2588</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>0.3703</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>0.3477</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>0.4119</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>0.3286</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>0.4967</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>0.2614</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>0.3702</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>0.3492</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>0.2468</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>0.3004</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>0.2756</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>0.2763</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>0.3435</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>0.2817</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>0.2859</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>0.2507</v>
       </c>
     </row>
